--- a/convert_to_lat_lon.xlsx
+++ b/convert_to_lat_lon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ninenox/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B03A48A-93E0-FD48-98FE-C8DC540DEF41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C4DFC6-E8CE-3B49-9A28-86B6F0200AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14820" xr2:uid="{2390C226-2BD7-5245-9D19-07C0AF2BCD71}"/>
   </bookViews>
@@ -88,12 +88,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,24 +432,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5841360-0314-5C4D-B6EB-761C4724DC4E}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
@@ -454,7 +461,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
@@ -477,7 +484,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="str">
@@ -492,7 +499,7 @@
         <f>MID(B2,8,4)</f>
         <v>34.1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="str">
@@ -518,9 +525,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
+        <f>(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="str">
@@ -535,7 +543,7 @@
         <f>MID(B3,8,4)</f>
         <v>08.5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="str">
@@ -561,9 +569,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
+        <f t="shared" ref="A4:A17" si="0">(A3+1)</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="str">
@@ -578,7 +587,7 @@
         <f>MID(B4,8,4)</f>
         <v>43.8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="str">
@@ -600,6 +609,500 @@
       <c r="K4">
         <f>G4+(H4/60)+(I4/3600)</f>
         <v>104.75180555555555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C17" si="1">MID(B5,1,3)</f>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D17" si="2">MID(B5,5,2)</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E17" si="3">MID(B5,8,4)</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G17" si="4">MID(F5,1,3)</f>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H17" si="5">MID(F5,5,2)</f>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I17" si="6">MID(F5,8,4)</f>
+        <v/>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" ref="J5:J17" si="7">C5+(D5/60)+(E5/3600)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" ref="K5:K17" si="8">G5+(H5/60)+(I5/3600)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J14" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J16" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J17" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
